--- a/results/02-2023/contributions-comparison-02-2023.xlsx
+++ b/results/02-2023/contributions-comparison-02-2023.xlsx
@@ -875,31 +875,31 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>-0.3966</v>
+        <v>-0.4662</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0496</v>
+        <v>-0.0489</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0516</v>
+        <v>-0.0509</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0276</v>
+        <v>-0.0429</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.296</v>
+        <v>-0.295</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4283</v>
+        <v>-0.4274</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0622</v>
+        <v>-0.0613</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0142</v>
+        <v>-0.0499</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.3911</v>
+        <v>-0.3899</v>
       </c>
     </row>
     <row r="10">
@@ -961,31 +961,31 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>-0.1007</v>
+        <v>-0.0641</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1058</v>
+        <v>-0.0694</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0889</v>
+        <v>-0.0526</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.083</v>
+        <v>-0.0471</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0704</v>
+        <v>-0.0352</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0546</v>
+        <v>-0.0202</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0561</v>
+        <v>-0.0223</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0372</v>
+        <v>-0.0112</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0356</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="12">
@@ -1047,31 +1047,31 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>-0.0966</v>
+        <v>-0.1115</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0657</v>
+        <v>-0.0957</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0972</v>
+        <v>-0.1426</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1045</v>
+        <v>-0.1501</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.107</v>
+        <v>-0.1383</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0211</v>
+        <v>-0.038</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0176</v>
+        <v>0.0151</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0223</v>
+        <v>0.0197</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0327</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
@@ -1133,31 +1133,31 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>-0.1178</v>
+        <v>-0.117</v>
       </c>
       <c r="L15" t="n">
-        <v>0.055</v>
+        <v>0.0557</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1073</v>
+        <v>0.1076</v>
       </c>
       <c r="N15" t="n">
-        <v>0.179</v>
+        <v>0.1645</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4505</v>
+        <v>0.4363</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4366</v>
+        <v>0.4298</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4479</v>
+        <v>0.4413</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4021</v>
+        <v>0.4039</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2878</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="16">
@@ -1821,31 +1821,31 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>-1.4993</v>
+        <v>-1.5464</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.6586</v>
+        <v>-1.6509</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.5768</v>
+        <v>-0.585</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.5236</v>
+        <v>-0.5631</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6023</v>
+        <v>-0.6118</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.2009</v>
+        <v>-0.1892</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1591</v>
+        <v>-0.1336</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0349</v>
+        <v>0.0243</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0733</v>
+        <v>-0.0478</v>
       </c>
     </row>
     <row r="32">
@@ -3283,31 +3283,31 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" t="n">
-        <v>0.0003</v>
+        <v>-0.0693</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0118</v>
+        <v>0.0125</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1132</v>
+        <v>0.114</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0962</v>
+        <v>0.081</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0186</v>
+        <v>0.0196</v>
       </c>
       <c r="P65" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0227</v>
+        <v>0.0236</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0113</v>
+        <v>-0.0244</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0344</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="66">
@@ -3369,31 +3369,31 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" t="n">
-        <v>0.0035</v>
+        <v>0.04</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0049</v>
+        <v>0.0413</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0067</v>
+        <v>0.0429</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0089</v>
+        <v>0.0448</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0112</v>
+        <v>0.0464</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0136</v>
+        <v>0.0481</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0157</v>
+        <v>0.0495</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0153</v>
+        <v>0.0412</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0109</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="68">
@@ -3455,31 +3455,31 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" t="n">
-        <v>-0.0303</v>
+        <v>-0.0452</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.0578</v>
+        <v>-0.0879</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0846</v>
+        <v>-0.1301</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0862</v>
+        <v>-0.1319</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0553</v>
+        <v>-0.0867</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0244</v>
+        <v>-0.0414</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0051</v>
+        <v>0.0026</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0102</v>
+        <v>0.0076</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0114</v>
+        <v>0.0087</v>
       </c>
     </row>
     <row r="70">
@@ -3541,31 +3541,31 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" t="n">
-        <v>0.0672</v>
+        <v>0.0679</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1296</v>
+        <v>0.1303</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1574</v>
+        <v>0.1576</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1329</v>
+        <v>0.1184</v>
       </c>
       <c r="O71" t="n">
-        <v>0.1065</v>
+        <v>0.0922</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0991</v>
+        <v>0.0924</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0935</v>
+        <v>0.0869</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0592</v>
+        <v>0.061</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="72">
@@ -4229,31 +4229,31 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>-0.0275</v>
+        <v>-0.0746</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1313</v>
+        <v>0.1391</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3068</v>
+        <v>0.2986</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1793</v>
+        <v>0.1398</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1402</v>
+        <v>0.1308</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1432</v>
+        <v>0.1549</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1766</v>
+        <v>0.2022</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1286</v>
+        <v>0.1181</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.1075</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="88">

--- a/results/02-2023/contributions-comparison-02-2023.xlsx
+++ b/results/02-2023/contributions-comparison-02-2023.xlsx
@@ -985,7 +985,7 @@
         <v>-0.0112</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0101</v>
+        <v>-0.0154</v>
       </c>
     </row>
     <row r="12">
@@ -1438,16 +1438,16 @@
         <v>0.2068</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9264</v>
+        <v>-0.9172</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2423</v>
+        <v>-0.2334</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8494</v>
+        <v>-0.8409</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4288</v>
+        <v>-0.4083</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -1477,31 +1477,31 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>0.0029</v>
+        <v>0.0142</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1128</v>
+        <v>0.124</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1612</v>
+        <v>0.1722</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1005</v>
+        <v>-0.1072</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1037</v>
+        <v>-0.1102</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0886</v>
+        <v>-0.095</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0738</v>
+        <v>-0.08</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0456</v>
+        <v>-0.0445</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0806</v>
+        <v>-0.0796</v>
       </c>
     </row>
     <row r="24">
@@ -1782,16 +1782,16 @@
         <v>-3.0855</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.8432</v>
+        <v>-3.8339</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.8306</v>
+        <v>-4.8217</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.486</v>
+        <v>-2.4774</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.0237</v>
+        <v>-1.0032</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
@@ -1821,31 +1821,31 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>-1.5464</v>
+        <v>-1.5351</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.6509</v>
+        <v>-1.6397</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.585</v>
+        <v>-0.574</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.5631</v>
+        <v>-0.5699</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6118</v>
+        <v>-0.6183</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1892</v>
+        <v>-0.1956</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1336</v>
+        <v>-0.1398</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0243</v>
+        <v>0.0254</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0478</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="32">
@@ -3393,7 +3393,7 @@
         <v>0.0412</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0365</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="68">
@@ -3846,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -3885,31 +3885,31 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" t="n">
-        <v>-0.0151</v>
+        <v>-0.0038</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.0273</v>
+        <v>-0.0161</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.0384</v>
+        <v>-0.0274</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.049</v>
+        <v>-0.0558</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0373</v>
+        <v>-0.0439</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0248</v>
+        <v>-0.0312</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0122</v>
+        <v>-0.0184</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0047</v>
+        <v>-0.0036</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0023</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="80">
@@ -4190,16 +4190,16 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="K86"/>
       <c r="L86"/>
@@ -4229,31 +4229,31 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>-0.0746</v>
+        <v>-0.0632</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1391</v>
+        <v>0.1503</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2986</v>
+        <v>0.3096</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1398</v>
+        <v>0.1331</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1308</v>
+        <v>0.1242</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1549</v>
+        <v>0.1485</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.2022</v>
+        <v>0.196</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1181</v>
+        <v>0.1191</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.082</v>
+        <v>-0.0862</v>
       </c>
     </row>
     <row r="88">

--- a/results/02-2023/contributions-comparison-02-2023.xlsx
+++ b/results/02-2023/contributions-comparison-02-2023.xlsx
@@ -1477,31 +1477,31 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>0.0215</v>
+        <v>0.0191</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1293</v>
+        <v>0.1269</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1754</v>
+        <v>0.1731</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1079</v>
+        <v>-0.1102</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1106</v>
+        <v>-0.0957</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0954</v>
+        <v>-0.0808</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0803</v>
+        <v>-0.066</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0448</v>
+        <v>-0.0309</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0799</v>
+        <v>-0.0692</v>
       </c>
     </row>
     <row r="24">
@@ -1821,31 +1821,31 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>-1.4846</v>
+        <v>-1.488</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.604</v>
+        <v>-1.6061</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.5373</v>
+        <v>-0.5396</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.5602</v>
+        <v>-0.5624</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.612</v>
+        <v>-0.5968</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1923</v>
+        <v>-0.1776</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1197</v>
+        <v>-0.1055</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0289</v>
+        <v>0.0429</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.1199</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="32">
@@ -2361,7 +2361,7 @@
         <v>-0.1013</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1097</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="44">
@@ -2939,31 +2939,31 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" t="n">
-        <v>-0.0265</v>
+        <v>-0.0275</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0064</v>
+        <v>-0.0062</v>
       </c>
       <c r="M57" t="n">
-        <v>0.007</v>
+        <v>0.0071</v>
       </c>
       <c r="N57" t="n">
         <v>0.016</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0119</v>
+        <v>0.0122</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0073</v>
+        <v>0.0075</v>
       </c>
       <c r="Q57" t="n">
         <v>0.0025</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.0017</v>
+        <v>-0.0016</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.0042</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="58">
@@ -3885,31 +3885,31 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" t="n">
-        <v>0.0073</v>
+        <v>0.0049</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0053</v>
+        <v>0.003</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0032</v>
+        <v>0.0009</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.0007</v>
+        <v>-0.003</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0004</v>
+        <v>0.0145</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0003</v>
+        <v>0.0142</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0003</v>
+        <v>0.0139</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0003</v>
+        <v>0.0136</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0003</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="80">
@@ -4229,31 +4229,31 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>0.0505</v>
+        <v>0.0471</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0357</v>
+        <v>0.0335</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0367</v>
+        <v>0.0344</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0097</v>
+        <v>0.0075</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0063</v>
+        <v>0.0215</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0032</v>
+        <v>0.018</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0201</v>
+        <v>0.0343</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0035</v>
+        <v>0.0175</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0679</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="88">
@@ -4769,7 +4769,7 @@
         <v>-0.0001</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.0716</v>
+        <v>0.0463</v>
       </c>
     </row>
     <row r="100">
@@ -5347,22 +5347,22 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M113" t="n">
         <v>0.0004</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="P113" t="n">
         <v>0.0003</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.0001</v>
       </c>
       <c r="Q113" t="n">
         <v>0.0001</v>
@@ -5371,7 +5371,7 @@
         <v>0.0001</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="114">

--- a/results/02-2023/contributions-comparison-02-2023.xlsx
+++ b/results/02-2023/contributions-comparison-02-2023.xlsx
@@ -1821,13 +1821,13 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>-1.488</v>
+        <v>-1.4882</v>
       </c>
       <c r="L31" t="n">
         <v>-1.6061</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.5396</v>
+        <v>-0.5395</v>
       </c>
       <c r="N31" t="n">
         <v>-0.5624</v>
@@ -1836,7 +1836,7 @@
         <v>-0.5968</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1776</v>
+        <v>-0.1775</v>
       </c>
       <c r="Q31" t="n">
         <v>-0.1055</v>
@@ -1845,7 +1845,7 @@
         <v>0.0429</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0089</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="32">
@@ -2939,7 +2939,7 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" t="n">
-        <v>-0.0275</v>
+        <v>-0.0276</v>
       </c>
       <c r="L57" t="n">
         <v>-0.0062</v>
@@ -2951,7 +2951,7 @@
         <v>0.016</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0122</v>
+        <v>0.0123</v>
       </c>
       <c r="P57" t="n">
         <v>0.0075</v>
@@ -4229,7 +4229,7 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>0.0471</v>
+        <v>0.0469</v>
       </c>
       <c r="L87" t="n">
         <v>0.0335</v>
@@ -5347,7 +5347,7 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113" t="n">
-        <v>-0.0007</v>
+        <v>-0.0008</v>
       </c>
       <c r="L113" t="n">
         <v>0.0005</v>
